--- a/assets/template.xlsx
+++ b/assets/template.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="87">
   <si>
     <t xml:space="preserve">Spielbericht</t>
   </si>
@@ -92,6 +92,9 @@
   </si>
   <si>
     <t xml:space="preserve">$PAUSE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$VERMERK</t>
   </si>
   <si>
     <t xml:space="preserve">Schiedsrichterteam von:</t>
@@ -416,7 +419,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="10">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
@@ -442,12 +445,12 @@
       <left style="thin"/>
       <right/>
       <top style="thin"/>
-      <bottom style="thin"/>
+      <bottom/>
       <diagonal/>
     </border>
     <border diagonalUp="false" diagonalDown="false">
-      <left/>
-      <right style="thin"/>
+      <left style="thin"/>
+      <right/>
       <top style="thin"/>
       <bottom style="thin"/>
       <diagonal/>
@@ -455,6 +458,13 @@
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left/>
+      <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
       <diagonal/>
@@ -506,7 +516,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="45">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -539,10 +549,6 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -603,15 +609,11 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="2" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="2" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="2" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -623,7 +625,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -631,7 +633,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -651,15 +653,15 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="2" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="2" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -675,7 +677,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -778,9 +780,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>449640</xdr:colOff>
+      <xdr:colOff>449280</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>160560</xdr:rowOff>
+      <xdr:rowOff>160200</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -794,7 +796,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="20160"/>
-          <a:ext cx="1176840" cy="845280"/>
+          <a:ext cx="1176480" cy="844920"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -817,7 +819,7 @@
   <dimension ref="A1:U41"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I45" activeCellId="0" sqref="I45"/>
+      <selection pane="topLeft" activeCell="D10" activeCellId="0" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.43359375" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -871,29 +873,28 @@
       <c r="F2" s="6"/>
       <c r="G2" s="6"/>
       <c r="H2" s="7"/>
-      <c r="I2" s="8"/>
-      <c r="J2" s="9" t="s">
+      <c r="J2" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="K2" s="9"/>
-      <c r="L2" s="9"/>
-      <c r="M2" s="10" t="str">
+      <c r="K2" s="8"/>
+      <c r="L2" s="8"/>
+      <c r="M2" s="9" t="str">
         <f aca="false">B22</f>
         <v>$HEIM</v>
       </c>
-      <c r="N2" s="10"/>
-      <c r="O2" s="11"/>
-      <c r="P2" s="11"/>
-      <c r="Q2" s="10" t="str">
+      <c r="N2" s="9"/>
+      <c r="O2" s="10"/>
+      <c r="P2" s="10"/>
+      <c r="Q2" s="9" t="str">
         <f aca="false">F22</f>
         <v>$GEGNER</v>
       </c>
-      <c r="R2" s="10"/>
-      <c r="S2" s="9" t="s">
+      <c r="R2" s="9"/>
+      <c r="S2" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="T2" s="9"/>
-      <c r="U2" s="9"/>
+      <c r="T2" s="8"/>
+      <c r="U2" s="8"/>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D3" s="5" t="s">
@@ -905,993 +906,994 @@
       <c r="F3" s="6"/>
       <c r="G3" s="6"/>
       <c r="H3" s="7"/>
-      <c r="I3" s="8"/>
-      <c r="J3" s="12" t="s">
+      <c r="J3" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="K3" s="12" t="s">
+      <c r="K3" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="L3" s="12" t="s">
+      <c r="L3" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="M3" s="12"/>
-      <c r="N3" s="12"/>
-      <c r="O3" s="12"/>
-      <c r="P3" s="12"/>
-      <c r="Q3" s="12"/>
-      <c r="R3" s="12"/>
-      <c r="S3" s="12" t="s">
+      <c r="M3" s="11"/>
+      <c r="N3" s="11"/>
+      <c r="O3" s="11"/>
+      <c r="P3" s="11"/>
+      <c r="Q3" s="11"/>
+      <c r="R3" s="11"/>
+      <c r="S3" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="T3" s="12" t="s">
+      <c r="T3" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="U3" s="13" t="s">
+      <c r="U3" s="12" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J4" s="14"/>
-      <c r="K4" s="15"/>
-      <c r="L4" s="16"/>
-      <c r="M4" s="17"/>
-      <c r="N4" s="17"/>
-      <c r="O4" s="17"/>
-      <c r="P4" s="17"/>
-      <c r="Q4" s="17"/>
-      <c r="R4" s="17"/>
-      <c r="S4" s="14"/>
-      <c r="T4" s="15"/>
-      <c r="U4" s="16"/>
+      <c r="J4" s="13"/>
+      <c r="K4" s="14"/>
+      <c r="L4" s="15"/>
+      <c r="M4" s="16"/>
+      <c r="N4" s="16"/>
+      <c r="O4" s="16"/>
+      <c r="P4" s="16"/>
+      <c r="Q4" s="16"/>
+      <c r="R4" s="16"/>
+      <c r="S4" s="13"/>
+      <c r="T4" s="14"/>
+      <c r="U4" s="15"/>
     </row>
     <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J5" s="14"/>
-      <c r="K5" s="15"/>
-      <c r="L5" s="16"/>
-      <c r="M5" s="17"/>
-      <c r="N5" s="17"/>
-      <c r="O5" s="17"/>
-      <c r="P5" s="17"/>
-      <c r="Q5" s="17"/>
-      <c r="R5" s="17"/>
-      <c r="S5" s="14"/>
-      <c r="T5" s="15"/>
-      <c r="U5" s="16"/>
+      <c r="J5" s="13"/>
+      <c r="K5" s="14"/>
+      <c r="L5" s="15"/>
+      <c r="M5" s="16"/>
+      <c r="N5" s="16"/>
+      <c r="O5" s="16"/>
+      <c r="P5" s="16"/>
+      <c r="Q5" s="16"/>
+      <c r="R5" s="16"/>
+      <c r="S5" s="13"/>
+      <c r="T5" s="14"/>
+      <c r="U5" s="15"/>
     </row>
     <row r="6" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="18" t="s">
+      <c r="A6" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="18"/>
-      <c r="C6" s="18" t="s">
+      <c r="B6" s="17"/>
+      <c r="C6" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="D6" s="18" t="s">
+      <c r="D6" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="E6" s="18" t="s">
+      <c r="E6" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="F6" s="18"/>
-      <c r="J6" s="14"/>
-      <c r="K6" s="15"/>
-      <c r="L6" s="16"/>
-      <c r="M6" s="17"/>
-      <c r="N6" s="17"/>
-      <c r="O6" s="17"/>
-      <c r="P6" s="17"/>
-      <c r="Q6" s="17"/>
-      <c r="R6" s="17"/>
-      <c r="S6" s="14"/>
-      <c r="T6" s="15"/>
-      <c r="U6" s="16"/>
+      <c r="F6" s="17"/>
+      <c r="J6" s="13"/>
+      <c r="K6" s="14"/>
+      <c r="L6" s="15"/>
+      <c r="M6" s="16"/>
+      <c r="N6" s="16"/>
+      <c r="O6" s="16"/>
+      <c r="P6" s="16"/>
+      <c r="Q6" s="16"/>
+      <c r="R6" s="16"/>
+      <c r="S6" s="13"/>
+      <c r="T6" s="14"/>
+      <c r="U6" s="15"/>
     </row>
     <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="19" t="s">
+      <c r="A7" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="B7" s="19"/>
-      <c r="C7" s="20" t="s">
+      <c r="B7" s="18"/>
+      <c r="C7" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="D7" s="21"/>
-      <c r="E7" s="19" t="s">
+      <c r="D7" s="20"/>
+      <c r="E7" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="F7" s="19"/>
-      <c r="J7" s="14"/>
-      <c r="K7" s="15"/>
-      <c r="L7" s="16"/>
-      <c r="M7" s="17"/>
-      <c r="N7" s="17"/>
-      <c r="O7" s="17"/>
-      <c r="P7" s="17"/>
-      <c r="Q7" s="17"/>
-      <c r="R7" s="17"/>
-      <c r="S7" s="14"/>
-      <c r="T7" s="15"/>
-      <c r="U7" s="16"/>
+      <c r="F7" s="18"/>
+      <c r="J7" s="13"/>
+      <c r="K7" s="14"/>
+      <c r="L7" s="15"/>
+      <c r="M7" s="16"/>
+      <c r="N7" s="16"/>
+      <c r="O7" s="16"/>
+      <c r="P7" s="16"/>
+      <c r="Q7" s="16"/>
+      <c r="R7" s="16"/>
+      <c r="S7" s="13"/>
+      <c r="T7" s="14"/>
+      <c r="U7" s="15"/>
     </row>
     <row r="8" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F8" s="22"/>
-      <c r="J8" s="14"/>
-      <c r="K8" s="15"/>
-      <c r="L8" s="16"/>
-      <c r="M8" s="17"/>
-      <c r="N8" s="17"/>
-      <c r="O8" s="17"/>
-      <c r="P8" s="17"/>
-      <c r="Q8" s="17"/>
-      <c r="R8" s="17"/>
-      <c r="S8" s="14"/>
-      <c r="T8" s="15"/>
-      <c r="U8" s="16"/>
+      <c r="F8" s="21"/>
+      <c r="J8" s="13"/>
+      <c r="K8" s="14"/>
+      <c r="L8" s="15"/>
+      <c r="M8" s="16"/>
+      <c r="N8" s="16"/>
+      <c r="O8" s="16"/>
+      <c r="P8" s="16"/>
+      <c r="Q8" s="16"/>
+      <c r="R8" s="16"/>
+      <c r="S8" s="13"/>
+      <c r="T8" s="14"/>
+      <c r="U8" s="15"/>
     </row>
     <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="18" t="s">
+      <c r="A9" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="B9" s="18"/>
-      <c r="C9" s="18" t="s">
+      <c r="B9" s="17"/>
+      <c r="C9" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="D9" s="18" t="s">
+      <c r="D9" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="E9" s="18"/>
-      <c r="F9" s="18" t="s">
+      <c r="E9" s="17"/>
+      <c r="F9" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="G9" s="18"/>
-      <c r="J9" s="14"/>
-      <c r="K9" s="15"/>
-      <c r="L9" s="16"/>
-      <c r="M9" s="17"/>
-      <c r="N9" s="17"/>
-      <c r="O9" s="17"/>
-      <c r="P9" s="17"/>
-      <c r="Q9" s="17"/>
-      <c r="R9" s="17"/>
-      <c r="S9" s="14"/>
-      <c r="T9" s="15"/>
-      <c r="U9" s="16"/>
+      <c r="G9" s="17"/>
+      <c r="J9" s="13"/>
+      <c r="K9" s="14"/>
+      <c r="L9" s="15"/>
+      <c r="M9" s="16"/>
+      <c r="N9" s="16"/>
+      <c r="O9" s="16"/>
+      <c r="P9" s="16"/>
+      <c r="Q9" s="16"/>
+      <c r="R9" s="16"/>
+      <c r="S9" s="13"/>
+      <c r="T9" s="14"/>
+      <c r="U9" s="15"/>
     </row>
     <row r="10" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="23" t="s">
+      <c r="A10" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="B10" s="23"/>
-      <c r="C10" s="21" t="s">
+      <c r="B10" s="22"/>
+      <c r="C10" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="D10" s="21" t="s">
+      <c r="D10" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="E10" s="18"/>
-      <c r="F10" s="24"/>
-      <c r="G10" s="25"/>
-      <c r="J10" s="14"/>
-      <c r="K10" s="15"/>
-      <c r="L10" s="16"/>
-      <c r="M10" s="17"/>
-      <c r="N10" s="17"/>
-      <c r="O10" s="17"/>
-      <c r="P10" s="17"/>
-      <c r="Q10" s="17"/>
-      <c r="R10" s="17"/>
-      <c r="S10" s="14"/>
-      <c r="T10" s="15"/>
-      <c r="U10" s="16"/>
+      <c r="E10" s="17"/>
+      <c r="F10" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="G10" s="23"/>
+      <c r="J10" s="13"/>
+      <c r="K10" s="14"/>
+      <c r="L10" s="15"/>
+      <c r="M10" s="16"/>
+      <c r="N10" s="16"/>
+      <c r="O10" s="16"/>
+      <c r="P10" s="16"/>
+      <c r="Q10" s="16"/>
+      <c r="R10" s="16"/>
+      <c r="S10" s="13"/>
+      <c r="T10" s="14"/>
+      <c r="U10" s="15"/>
     </row>
     <row r="11" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="18"/>
-      <c r="B11" s="18"/>
-      <c r="C11" s="18"/>
-      <c r="D11" s="18"/>
-      <c r="E11" s="18"/>
-      <c r="F11" s="18"/>
-      <c r="G11" s="18"/>
-      <c r="J11" s="14"/>
-      <c r="K11" s="15"/>
-      <c r="L11" s="16"/>
-      <c r="M11" s="17"/>
-      <c r="N11" s="17"/>
-      <c r="O11" s="17"/>
-      <c r="P11" s="17"/>
-      <c r="Q11" s="17"/>
-      <c r="R11" s="17"/>
-      <c r="S11" s="14"/>
-      <c r="T11" s="15"/>
-      <c r="U11" s="16"/>
+      <c r="A11" s="17"/>
+      <c r="B11" s="17"/>
+      <c r="C11" s="17"/>
+      <c r="D11" s="17"/>
+      <c r="E11" s="17"/>
+      <c r="F11" s="23"/>
+      <c r="G11" s="23"/>
+      <c r="J11" s="13"/>
+      <c r="K11" s="14"/>
+      <c r="L11" s="15"/>
+      <c r="M11" s="16"/>
+      <c r="N11" s="16"/>
+      <c r="O11" s="16"/>
+      <c r="P11" s="16"/>
+      <c r="Q11" s="16"/>
+      <c r="R11" s="16"/>
+      <c r="S11" s="13"/>
+      <c r="T11" s="14"/>
+      <c r="U11" s="15"/>
     </row>
     <row r="12" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="B12" s="18"/>
-      <c r="C12" s="18"/>
-      <c r="D12" s="19" t="s">
+      <c r="A12" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="E12" s="19"/>
-      <c r="F12" s="18"/>
-      <c r="G12" s="18"/>
-      <c r="J12" s="14"/>
-      <c r="K12" s="15"/>
-      <c r="L12" s="16"/>
-      <c r="M12" s="17"/>
-      <c r="N12" s="17"/>
-      <c r="O12" s="17"/>
-      <c r="P12" s="17"/>
-      <c r="Q12" s="17"/>
-      <c r="R12" s="17"/>
-      <c r="S12" s="14"/>
-      <c r="T12" s="15"/>
-      <c r="U12" s="16"/>
+      <c r="B12" s="17"/>
+      <c r="C12" s="17"/>
+      <c r="D12" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="E12" s="18"/>
+      <c r="F12" s="23"/>
+      <c r="G12" s="23"/>
+      <c r="J12" s="13"/>
+      <c r="K12" s="14"/>
+      <c r="L12" s="15"/>
+      <c r="M12" s="16"/>
+      <c r="N12" s="16"/>
+      <c r="O12" s="16"/>
+      <c r="P12" s="16"/>
+      <c r="Q12" s="16"/>
+      <c r="R12" s="16"/>
+      <c r="S12" s="13"/>
+      <c r="T12" s="14"/>
+      <c r="U12" s="15"/>
     </row>
     <row r="13" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="18" t="s">
-        <v>26</v>
-      </c>
-      <c r="B13" s="18"/>
-      <c r="C13" s="18"/>
-      <c r="D13" s="18" t="s">
+      <c r="A13" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="E13" s="18"/>
-      <c r="F13" s="18"/>
-      <c r="G13" s="18"/>
-      <c r="J13" s="14"/>
-      <c r="K13" s="15"/>
-      <c r="L13" s="16"/>
-      <c r="M13" s="17"/>
-      <c r="N13" s="17"/>
-      <c r="O13" s="17"/>
-      <c r="P13" s="17"/>
-      <c r="Q13" s="17"/>
-      <c r="R13" s="17"/>
-      <c r="S13" s="14"/>
-      <c r="T13" s="15"/>
-      <c r="U13" s="16"/>
+      <c r="B13" s="17"/>
+      <c r="C13" s="17"/>
+      <c r="D13" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="E13" s="17"/>
+      <c r="F13" s="23"/>
+      <c r="G13" s="23"/>
+      <c r="J13" s="13"/>
+      <c r="K13" s="14"/>
+      <c r="L13" s="15"/>
+      <c r="M13" s="16"/>
+      <c r="N13" s="16"/>
+      <c r="O13" s="16"/>
+      <c r="P13" s="16"/>
+      <c r="Q13" s="16"/>
+      <c r="R13" s="16"/>
+      <c r="S13" s="13"/>
+      <c r="T13" s="14"/>
+      <c r="U13" s="15"/>
     </row>
     <row r="14" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="19"/>
-      <c r="B14" s="19"/>
-      <c r="C14" s="19"/>
-      <c r="D14" s="19"/>
-      <c r="E14" s="19"/>
-      <c r="F14" s="18"/>
-      <c r="G14" s="18"/>
-      <c r="J14" s="14"/>
-      <c r="K14" s="15"/>
-      <c r="L14" s="16"/>
-      <c r="M14" s="17"/>
-      <c r="N14" s="17"/>
-      <c r="O14" s="17"/>
-      <c r="P14" s="17"/>
-      <c r="Q14" s="17"/>
-      <c r="R14" s="17"/>
-      <c r="S14" s="14"/>
-      <c r="T14" s="15"/>
-      <c r="U14" s="16"/>
+      <c r="A14" s="18"/>
+      <c r="B14" s="18"/>
+      <c r="C14" s="18"/>
+      <c r="D14" s="18"/>
+      <c r="E14" s="18"/>
+      <c r="F14" s="23"/>
+      <c r="G14" s="23"/>
+      <c r="J14" s="13"/>
+      <c r="K14" s="14"/>
+      <c r="L14" s="15"/>
+      <c r="M14" s="16"/>
+      <c r="N14" s="16"/>
+      <c r="O14" s="16"/>
+      <c r="P14" s="16"/>
+      <c r="Q14" s="16"/>
+      <c r="R14" s="16"/>
+      <c r="S14" s="13"/>
+      <c r="T14" s="14"/>
+      <c r="U14" s="15"/>
     </row>
     <row r="15" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="18" t="s">
-        <v>28</v>
-      </c>
-      <c r="B15" s="18"/>
-      <c r="C15" s="18"/>
-      <c r="D15" s="18" t="s">
+      <c r="A15" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="E15" s="18"/>
-      <c r="F15" s="18"/>
-      <c r="G15" s="18"/>
-      <c r="J15" s="14"/>
-      <c r="K15" s="15"/>
-      <c r="L15" s="16"/>
-      <c r="M15" s="17"/>
-      <c r="N15" s="17"/>
-      <c r="O15" s="17"/>
-      <c r="P15" s="17"/>
-      <c r="Q15" s="17"/>
-      <c r="R15" s="17"/>
-      <c r="S15" s="14"/>
-      <c r="T15" s="15"/>
-      <c r="U15" s="16"/>
+      <c r="B15" s="17"/>
+      <c r="C15" s="17"/>
+      <c r="D15" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="E15" s="17"/>
+      <c r="F15" s="23"/>
+      <c r="G15" s="23"/>
+      <c r="J15" s="13"/>
+      <c r="K15" s="14"/>
+      <c r="L15" s="15"/>
+      <c r="M15" s="16"/>
+      <c r="N15" s="16"/>
+      <c r="O15" s="16"/>
+      <c r="P15" s="16"/>
+      <c r="Q15" s="16"/>
+      <c r="R15" s="16"/>
+      <c r="S15" s="13"/>
+      <c r="T15" s="14"/>
+      <c r="U15" s="15"/>
     </row>
     <row r="16" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="19"/>
-      <c r="B16" s="19"/>
-      <c r="C16" s="19"/>
-      <c r="D16" s="19"/>
-      <c r="E16" s="19"/>
-      <c r="F16" s="18"/>
-      <c r="G16" s="18"/>
-      <c r="J16" s="14"/>
-      <c r="K16" s="15"/>
-      <c r="L16" s="16"/>
-      <c r="M16" s="17"/>
-      <c r="N16" s="17"/>
-      <c r="O16" s="17"/>
-      <c r="P16" s="17"/>
-      <c r="Q16" s="17"/>
-      <c r="R16" s="17"/>
-      <c r="S16" s="14"/>
-      <c r="T16" s="15"/>
-      <c r="U16" s="16"/>
+      <c r="A16" s="18"/>
+      <c r="B16" s="18"/>
+      <c r="C16" s="18"/>
+      <c r="D16" s="18"/>
+      <c r="E16" s="18"/>
+      <c r="F16" s="23"/>
+      <c r="G16" s="23"/>
+      <c r="J16" s="13"/>
+      <c r="K16" s="14"/>
+      <c r="L16" s="15"/>
+      <c r="M16" s="16"/>
+      <c r="N16" s="16"/>
+      <c r="O16" s="16"/>
+      <c r="P16" s="16"/>
+      <c r="Q16" s="16"/>
+      <c r="R16" s="16"/>
+      <c r="S16" s="13"/>
+      <c r="T16" s="14"/>
+      <c r="U16" s="15"/>
     </row>
     <row r="17" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="18" t="s">
-        <v>30</v>
-      </c>
-      <c r="B17" s="18"/>
-      <c r="C17" s="18"/>
-      <c r="D17" s="18" t="s">
+      <c r="A17" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="E17" s="18"/>
-      <c r="F17" s="18"/>
-      <c r="G17" s="18"/>
-      <c r="J17" s="14"/>
-      <c r="K17" s="15"/>
-      <c r="L17" s="16"/>
-      <c r="M17" s="17"/>
-      <c r="N17" s="17"/>
-      <c r="O17" s="17"/>
-      <c r="P17" s="17"/>
-      <c r="Q17" s="17"/>
-      <c r="R17" s="17"/>
-      <c r="S17" s="14"/>
-      <c r="T17" s="15"/>
-      <c r="U17" s="16"/>
+      <c r="B17" s="17"/>
+      <c r="C17" s="17"/>
+      <c r="D17" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="E17" s="17"/>
+      <c r="F17" s="23"/>
+      <c r="G17" s="23"/>
+      <c r="J17" s="13"/>
+      <c r="K17" s="14"/>
+      <c r="L17" s="15"/>
+      <c r="M17" s="16"/>
+      <c r="N17" s="16"/>
+      <c r="O17" s="16"/>
+      <c r="P17" s="16"/>
+      <c r="Q17" s="16"/>
+      <c r="R17" s="16"/>
+      <c r="S17" s="13"/>
+      <c r="T17" s="14"/>
+      <c r="U17" s="15"/>
     </row>
     <row r="18" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="19"/>
-      <c r="B18" s="19"/>
-      <c r="C18" s="19"/>
-      <c r="D18" s="19"/>
-      <c r="E18" s="19"/>
-      <c r="F18" s="18"/>
-      <c r="G18" s="18"/>
-      <c r="J18" s="14"/>
-      <c r="K18" s="15"/>
-      <c r="L18" s="16"/>
-      <c r="M18" s="17"/>
-      <c r="N18" s="17"/>
-      <c r="O18" s="17"/>
-      <c r="P18" s="17"/>
-      <c r="Q18" s="17"/>
-      <c r="R18" s="17"/>
-      <c r="S18" s="14"/>
-      <c r="T18" s="15"/>
-      <c r="U18" s="16"/>
+      <c r="A18" s="18"/>
+      <c r="B18" s="18"/>
+      <c r="C18" s="18"/>
+      <c r="D18" s="18"/>
+      <c r="E18" s="18"/>
+      <c r="F18" s="23"/>
+      <c r="G18" s="23"/>
+      <c r="J18" s="13"/>
+      <c r="K18" s="14"/>
+      <c r="L18" s="15"/>
+      <c r="M18" s="16"/>
+      <c r="N18" s="16"/>
+      <c r="O18" s="16"/>
+      <c r="P18" s="16"/>
+      <c r="Q18" s="16"/>
+      <c r="R18" s="16"/>
+      <c r="S18" s="13"/>
+      <c r="T18" s="14"/>
+      <c r="U18" s="15"/>
     </row>
     <row r="19" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="18" t="s">
-        <v>32</v>
-      </c>
-      <c r="B19" s="18"/>
-      <c r="C19" s="18"/>
-      <c r="D19" s="18"/>
-      <c r="E19" s="18"/>
-      <c r="F19" s="18"/>
-      <c r="G19" s="18"/>
-      <c r="J19" s="14"/>
-      <c r="K19" s="15"/>
-      <c r="L19" s="16"/>
-      <c r="M19" s="17"/>
-      <c r="N19" s="17"/>
-      <c r="O19" s="17"/>
-      <c r="P19" s="17"/>
-      <c r="Q19" s="17"/>
-      <c r="R19" s="17"/>
-      <c r="S19" s="14"/>
-      <c r="T19" s="15"/>
-      <c r="U19" s="16"/>
+      <c r="A19" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="B19" s="17"/>
+      <c r="C19" s="17"/>
+      <c r="D19" s="17"/>
+      <c r="E19" s="17"/>
+      <c r="F19" s="23"/>
+      <c r="G19" s="23"/>
+      <c r="J19" s="13"/>
+      <c r="K19" s="14"/>
+      <c r="L19" s="15"/>
+      <c r="M19" s="16"/>
+      <c r="N19" s="16"/>
+      <c r="O19" s="16"/>
+      <c r="P19" s="16"/>
+      <c r="Q19" s="16"/>
+      <c r="R19" s="16"/>
+      <c r="S19" s="13"/>
+      <c r="T19" s="14"/>
+      <c r="U19" s="15"/>
     </row>
     <row r="20" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A20" s="19"/>
-      <c r="B20" s="19"/>
-      <c r="C20" s="19"/>
-      <c r="D20" s="18"/>
-      <c r="E20" s="18"/>
-      <c r="F20" s="18"/>
-      <c r="G20" s="18"/>
-      <c r="J20" s="14"/>
-      <c r="K20" s="15"/>
-      <c r="L20" s="16"/>
-      <c r="M20" s="17"/>
-      <c r="N20" s="17"/>
-      <c r="O20" s="17"/>
-      <c r="P20" s="17"/>
-      <c r="Q20" s="17"/>
-      <c r="R20" s="17"/>
-      <c r="S20" s="14"/>
-      <c r="T20" s="15"/>
-      <c r="U20" s="16"/>
+      <c r="A20" s="18"/>
+      <c r="B20" s="18"/>
+      <c r="C20" s="18"/>
+      <c r="D20" s="17"/>
+      <c r="E20" s="17"/>
+      <c r="F20" s="17"/>
+      <c r="G20" s="17"/>
+      <c r="J20" s="13"/>
+      <c r="K20" s="14"/>
+      <c r="L20" s="15"/>
+      <c r="M20" s="16"/>
+      <c r="N20" s="16"/>
+      <c r="O20" s="16"/>
+      <c r="P20" s="16"/>
+      <c r="Q20" s="16"/>
+      <c r="R20" s="16"/>
+      <c r="S20" s="13"/>
+      <c r="T20" s="14"/>
+      <c r="U20" s="15"/>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D21" s="0"/>
       <c r="E21" s="0"/>
       <c r="F21" s="0"/>
-      <c r="G21" s="18"/>
-      <c r="H21" s="18"/>
-      <c r="I21" s="18"/>
-      <c r="J21" s="14"/>
-      <c r="K21" s="15"/>
-      <c r="L21" s="16"/>
-      <c r="M21" s="17"/>
-      <c r="N21" s="17"/>
-      <c r="O21" s="17"/>
-      <c r="P21" s="17"/>
-      <c r="Q21" s="17"/>
-      <c r="R21" s="17"/>
-      <c r="S21" s="14"/>
-      <c r="T21" s="15"/>
-      <c r="U21" s="16"/>
+      <c r="G21" s="17"/>
+      <c r="H21" s="17"/>
+      <c r="I21" s="17"/>
+      <c r="J21" s="13"/>
+      <c r="K21" s="14"/>
+      <c r="L21" s="15"/>
+      <c r="M21" s="16"/>
+      <c r="N21" s="16"/>
+      <c r="O21" s="16"/>
+      <c r="P21" s="16"/>
+      <c r="Q21" s="16"/>
+      <c r="R21" s="16"/>
+      <c r="S21" s="13"/>
+      <c r="T21" s="14"/>
+      <c r="U21" s="15"/>
     </row>
     <row r="22" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A22" s="26" t="s">
+      <c r="A22" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="B22" s="27" t="s">
-        <v>33</v>
-      </c>
-      <c r="C22" s="28"/>
-      <c r="D22" s="29"/>
-      <c r="E22" s="26" t="s">
+      <c r="B22" s="25" t="s">
+        <v>34</v>
+      </c>
+      <c r="C22" s="26"/>
+      <c r="D22" s="27"/>
+      <c r="E22" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="F22" s="30" t="s">
-        <v>34</v>
-      </c>
-      <c r="G22" s="31"/>
-      <c r="J22" s="14"/>
-      <c r="K22" s="15"/>
-      <c r="L22" s="16"/>
-      <c r="M22" s="17"/>
-      <c r="N22" s="17"/>
-      <c r="O22" s="17"/>
-      <c r="P22" s="17"/>
-      <c r="Q22" s="17"/>
-      <c r="R22" s="17"/>
-      <c r="S22" s="14"/>
-      <c r="T22" s="15"/>
-      <c r="U22" s="16"/>
+      <c r="F22" s="28" t="s">
+        <v>35</v>
+      </c>
+      <c r="G22" s="29"/>
+      <c r="J22" s="13"/>
+      <c r="K22" s="14"/>
+      <c r="L22" s="15"/>
+      <c r="M22" s="16"/>
+      <c r="N22" s="16"/>
+      <c r="O22" s="16"/>
+      <c r="P22" s="16"/>
+      <c r="Q22" s="16"/>
+      <c r="R22" s="16"/>
+      <c r="S22" s="13"/>
+      <c r="T22" s="14"/>
+      <c r="U22" s="15"/>
     </row>
     <row r="23" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="32" t="s">
-        <v>35</v>
-      </c>
-      <c r="B23" s="33" t="s">
+      <c r="A23" s="30" t="s">
         <v>36</v>
       </c>
-      <c r="C23" s="33"/>
-      <c r="D23" s="32" t="s">
+      <c r="B23" s="31" t="s">
         <v>37</v>
       </c>
-      <c r="E23" s="32" t="s">
-        <v>35</v>
-      </c>
-      <c r="F23" s="32" t="s">
+      <c r="C23" s="31"/>
+      <c r="D23" s="30" t="s">
+        <v>38</v>
+      </c>
+      <c r="E23" s="30" t="s">
         <v>36</v>
       </c>
-      <c r="G23" s="32" t="s">
+      <c r="F23" s="30" t="s">
         <v>37</v>
       </c>
-      <c r="J23" s="14"/>
-      <c r="K23" s="15"/>
-      <c r="L23" s="16"/>
-      <c r="M23" s="17"/>
-      <c r="N23" s="17"/>
-      <c r="O23" s="17"/>
-      <c r="P23" s="17"/>
-      <c r="Q23" s="17"/>
-      <c r="R23" s="17"/>
-      <c r="S23" s="14"/>
-      <c r="T23" s="15"/>
-      <c r="U23" s="16"/>
+      <c r="G23" s="30" t="s">
+        <v>38</v>
+      </c>
+      <c r="J23" s="13"/>
+      <c r="K23" s="14"/>
+      <c r="L23" s="15"/>
+      <c r="M23" s="16"/>
+      <c r="N23" s="16"/>
+      <c r="O23" s="16"/>
+      <c r="P23" s="16"/>
+      <c r="Q23" s="16"/>
+      <c r="R23" s="16"/>
+      <c r="S23" s="13"/>
+      <c r="T23" s="14"/>
+      <c r="U23" s="15"/>
     </row>
     <row r="24" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="34" t="s">
-        <v>38</v>
-      </c>
-      <c r="B24" s="35" t="s">
+      <c r="A24" s="32" t="s">
         <v>39</v>
       </c>
-      <c r="C24" s="35"/>
-      <c r="D24" s="35"/>
-      <c r="E24" s="34" t="s">
+      <c r="B24" s="33" t="s">
         <v>40</v>
       </c>
-      <c r="F24" s="35" t="s">
+      <c r="C24" s="33"/>
+      <c r="D24" s="33"/>
+      <c r="E24" s="32" t="s">
         <v>41</v>
       </c>
-      <c r="G24" s="36"/>
-      <c r="J24" s="14"/>
-      <c r="K24" s="15"/>
-      <c r="L24" s="16"/>
-      <c r="M24" s="17"/>
-      <c r="N24" s="17"/>
-      <c r="O24" s="17"/>
-      <c r="P24" s="17"/>
-      <c r="Q24" s="17"/>
-      <c r="R24" s="17"/>
-      <c r="S24" s="14"/>
-      <c r="T24" s="15"/>
-      <c r="U24" s="16"/>
+      <c r="F24" s="33" t="s">
+        <v>42</v>
+      </c>
+      <c r="G24" s="34"/>
+      <c r="J24" s="13"/>
+      <c r="K24" s="14"/>
+      <c r="L24" s="15"/>
+      <c r="M24" s="16"/>
+      <c r="N24" s="16"/>
+      <c r="O24" s="16"/>
+      <c r="P24" s="16"/>
+      <c r="Q24" s="16"/>
+      <c r="R24" s="16"/>
+      <c r="S24" s="13"/>
+      <c r="T24" s="14"/>
+      <c r="U24" s="15"/>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="34" t="s">
-        <v>42</v>
-      </c>
-      <c r="B25" s="35" t="s">
+      <c r="A25" s="32" t="s">
         <v>43</v>
       </c>
-      <c r="C25" s="35"/>
-      <c r="D25" s="35"/>
-      <c r="E25" s="34" t="s">
+      <c r="B25" s="33" t="s">
         <v>44</v>
       </c>
-      <c r="F25" s="35" t="s">
+      <c r="C25" s="33"/>
+      <c r="D25" s="33"/>
+      <c r="E25" s="32" t="s">
         <v>45</v>
       </c>
-      <c r="G25" s="36"/>
-      <c r="J25" s="14"/>
-      <c r="K25" s="15"/>
-      <c r="L25" s="16"/>
-      <c r="M25" s="17"/>
-      <c r="N25" s="17"/>
-      <c r="O25" s="17"/>
-      <c r="P25" s="17"/>
-      <c r="Q25" s="17"/>
-      <c r="R25" s="17"/>
-      <c r="S25" s="14"/>
-      <c r="T25" s="15"/>
-      <c r="U25" s="16"/>
+      <c r="F25" s="33" t="s">
+        <v>46</v>
+      </c>
+      <c r="G25" s="34"/>
+      <c r="J25" s="13"/>
+      <c r="K25" s="14"/>
+      <c r="L25" s="15"/>
+      <c r="M25" s="16"/>
+      <c r="N25" s="16"/>
+      <c r="O25" s="16"/>
+      <c r="P25" s="16"/>
+      <c r="Q25" s="16"/>
+      <c r="R25" s="16"/>
+      <c r="S25" s="13"/>
+      <c r="T25" s="14"/>
+      <c r="U25" s="15"/>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="34" t="s">
-        <v>46</v>
-      </c>
-      <c r="B26" s="35" t="s">
+      <c r="A26" s="32" t="s">
         <v>47</v>
       </c>
-      <c r="C26" s="35"/>
-      <c r="D26" s="35"/>
-      <c r="E26" s="34" t="s">
+      <c r="B26" s="33" t="s">
         <v>48</v>
       </c>
-      <c r="F26" s="35" t="s">
+      <c r="C26" s="33"/>
+      <c r="D26" s="33"/>
+      <c r="E26" s="32" t="s">
         <v>49</v>
       </c>
-      <c r="G26" s="36"/>
-      <c r="J26" s="14"/>
-      <c r="K26" s="15"/>
-      <c r="L26" s="16"/>
-      <c r="M26" s="17"/>
-      <c r="N26" s="17"/>
-      <c r="O26" s="17"/>
-      <c r="P26" s="17"/>
-      <c r="Q26" s="17"/>
-      <c r="R26" s="17"/>
-      <c r="S26" s="14"/>
-      <c r="T26" s="15"/>
-      <c r="U26" s="16"/>
+      <c r="F26" s="33" t="s">
+        <v>50</v>
+      </c>
+      <c r="G26" s="34"/>
+      <c r="J26" s="13"/>
+      <c r="K26" s="14"/>
+      <c r="L26" s="15"/>
+      <c r="M26" s="16"/>
+      <c r="N26" s="16"/>
+      <c r="O26" s="16"/>
+      <c r="P26" s="16"/>
+      <c r="Q26" s="16"/>
+      <c r="R26" s="16"/>
+      <c r="S26" s="13"/>
+      <c r="T26" s="14"/>
+      <c r="U26" s="15"/>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="34" t="s">
-        <v>50</v>
-      </c>
-      <c r="B27" s="35" t="s">
+      <c r="A27" s="32" t="s">
         <v>51</v>
       </c>
-      <c r="C27" s="35"/>
-      <c r="D27" s="35"/>
-      <c r="E27" s="34" t="s">
+      <c r="B27" s="33" t="s">
         <v>52</v>
       </c>
-      <c r="F27" s="35" t="s">
+      <c r="C27" s="33"/>
+      <c r="D27" s="33"/>
+      <c r="E27" s="32" t="s">
         <v>53</v>
       </c>
-      <c r="G27" s="36"/>
-      <c r="J27" s="14"/>
-      <c r="K27" s="15"/>
-      <c r="L27" s="16"/>
-      <c r="M27" s="17"/>
-      <c r="N27" s="17"/>
-      <c r="O27" s="17"/>
-      <c r="P27" s="17"/>
-      <c r="Q27" s="17"/>
-      <c r="R27" s="17"/>
-      <c r="S27" s="14"/>
-      <c r="T27" s="15"/>
-      <c r="U27" s="16"/>
+      <c r="F27" s="33" t="s">
+        <v>54</v>
+      </c>
+      <c r="G27" s="34"/>
+      <c r="J27" s="13"/>
+      <c r="K27" s="14"/>
+      <c r="L27" s="15"/>
+      <c r="M27" s="16"/>
+      <c r="N27" s="16"/>
+      <c r="O27" s="16"/>
+      <c r="P27" s="16"/>
+      <c r="Q27" s="16"/>
+      <c r="R27" s="16"/>
+      <c r="S27" s="13"/>
+      <c r="T27" s="14"/>
+      <c r="U27" s="15"/>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="34" t="s">
-        <v>54</v>
-      </c>
-      <c r="B28" s="35" t="s">
+      <c r="A28" s="32" t="s">
         <v>55</v>
       </c>
-      <c r="C28" s="35"/>
-      <c r="D28" s="35"/>
-      <c r="E28" s="34" t="s">
+      <c r="B28" s="33" t="s">
         <v>56</v>
       </c>
-      <c r="F28" s="35" t="s">
+      <c r="C28" s="33"/>
+      <c r="D28" s="33"/>
+      <c r="E28" s="32" t="s">
         <v>57</v>
       </c>
-      <c r="G28" s="36"/>
-      <c r="J28" s="14"/>
-      <c r="K28" s="15"/>
-      <c r="L28" s="16"/>
-      <c r="M28" s="17"/>
-      <c r="N28" s="17"/>
-      <c r="O28" s="17"/>
-      <c r="P28" s="17"/>
-      <c r="Q28" s="17"/>
-      <c r="R28" s="17"/>
-      <c r="S28" s="14"/>
-      <c r="T28" s="15"/>
-      <c r="U28" s="16"/>
+      <c r="F28" s="33" t="s">
+        <v>58</v>
+      </c>
+      <c r="G28" s="34"/>
+      <c r="J28" s="13"/>
+      <c r="K28" s="14"/>
+      <c r="L28" s="15"/>
+      <c r="M28" s="16"/>
+      <c r="N28" s="16"/>
+      <c r="O28" s="16"/>
+      <c r="P28" s="16"/>
+      <c r="Q28" s="16"/>
+      <c r="R28" s="16"/>
+      <c r="S28" s="13"/>
+      <c r="T28" s="14"/>
+      <c r="U28" s="15"/>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="34" t="s">
-        <v>58</v>
-      </c>
-      <c r="B29" s="35" t="s">
+      <c r="A29" s="32" t="s">
         <v>59</v>
       </c>
-      <c r="C29" s="35"/>
-      <c r="D29" s="35"/>
-      <c r="E29" s="34" t="s">
+      <c r="B29" s="33" t="s">
         <v>60</v>
       </c>
-      <c r="F29" s="35" t="s">
+      <c r="C29" s="33"/>
+      <c r="D29" s="33"/>
+      <c r="E29" s="32" t="s">
         <v>61</v>
       </c>
-      <c r="G29" s="36"/>
-      <c r="J29" s="18"/>
-      <c r="K29" s="18"/>
-      <c r="L29" s="18"/>
-      <c r="M29" s="18"/>
-      <c r="N29" s="37"/>
-      <c r="O29" s="38" t="s">
+      <c r="F29" s="33" t="s">
         <v>62</v>
       </c>
-      <c r="P29" s="38"/>
-      <c r="Q29" s="37"/>
-      <c r="R29" s="18"/>
-      <c r="S29" s="18"/>
-      <c r="T29" s="18"/>
-      <c r="U29" s="18"/>
+      <c r="G29" s="34"/>
+      <c r="J29" s="17"/>
+      <c r="K29" s="17"/>
+      <c r="L29" s="17"/>
+      <c r="M29" s="17"/>
+      <c r="N29" s="35"/>
+      <c r="O29" s="36" t="s">
+        <v>63</v>
+      </c>
+      <c r="P29" s="36"/>
+      <c r="Q29" s="35"/>
+      <c r="R29" s="17"/>
+      <c r="S29" s="17"/>
+      <c r="T29" s="17"/>
+      <c r="U29" s="17"/>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="34" t="s">
-        <v>63</v>
-      </c>
-      <c r="B30" s="35" t="s">
+      <c r="A30" s="32" t="s">
         <v>64</v>
       </c>
-      <c r="C30" s="35"/>
-      <c r="D30" s="35"/>
-      <c r="E30" s="34" t="s">
+      <c r="B30" s="33" t="s">
         <v>65</v>
       </c>
-      <c r="F30" s="35" t="s">
+      <c r="C30" s="33"/>
+      <c r="D30" s="33"/>
+      <c r="E30" s="32" t="s">
         <v>66</v>
       </c>
-      <c r="G30" s="36"/>
-      <c r="J30" s="39" t="str">
+      <c r="F30" s="33" t="s">
+        <v>67</v>
+      </c>
+      <c r="G30" s="34"/>
+      <c r="J30" s="37" t="str">
         <f aca="false">M2</f>
         <v>$HEIM</v>
       </c>
-      <c r="K30" s="18"/>
-      <c r="L30" s="18"/>
-      <c r="M30" s="18"/>
-      <c r="N30" s="37"/>
-      <c r="O30" s="38"/>
-      <c r="P30" s="38"/>
-      <c r="Q30" s="37"/>
-      <c r="R30" s="18"/>
-      <c r="S30" s="18"/>
-      <c r="T30" s="18"/>
-      <c r="U30" s="40" t="str">
+      <c r="K30" s="17"/>
+      <c r="L30" s="17"/>
+      <c r="M30" s="17"/>
+      <c r="N30" s="35"/>
+      <c r="O30" s="36"/>
+      <c r="P30" s="36"/>
+      <c r="Q30" s="35"/>
+      <c r="R30" s="17"/>
+      <c r="S30" s="17"/>
+      <c r="T30" s="17"/>
+      <c r="U30" s="38" t="str">
         <f aca="false">Q2</f>
         <v>$GEGNER</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A31" s="34" t="s">
-        <v>67</v>
-      </c>
-      <c r="B31" s="35" t="s">
+      <c r="A31" s="32" t="s">
         <v>68</v>
       </c>
-      <c r="C31" s="35"/>
-      <c r="D31" s="35"/>
-      <c r="E31" s="34" t="s">
+      <c r="B31" s="33" t="s">
         <v>69</v>
       </c>
-      <c r="F31" s="35" t="s">
+      <c r="C31" s="33"/>
+      <c r="D31" s="33"/>
+      <c r="E31" s="32" t="s">
         <v>70</v>
       </c>
-      <c r="G31" s="36"/>
-      <c r="J31" s="18"/>
-      <c r="K31" s="41"/>
-      <c r="L31" s="41"/>
-      <c r="M31" s="41"/>
-      <c r="N31" s="42"/>
-      <c r="O31" s="43" t="s">
+      <c r="F31" s="33" t="s">
         <v>71</v>
       </c>
-      <c r="P31" s="43"/>
-      <c r="Q31" s="42"/>
-      <c r="R31" s="18"/>
-      <c r="S31" s="41"/>
-      <c r="T31" s="41"/>
-      <c r="U31" s="41"/>
+      <c r="G31" s="34"/>
+      <c r="J31" s="17"/>
+      <c r="K31" s="39"/>
+      <c r="L31" s="39"/>
+      <c r="M31" s="39"/>
+      <c r="N31" s="40"/>
+      <c r="O31" s="41" t="s">
+        <v>72</v>
+      </c>
+      <c r="P31" s="41"/>
+      <c r="Q31" s="40"/>
+      <c r="R31" s="17"/>
+      <c r="S31" s="39"/>
+      <c r="T31" s="39"/>
+      <c r="U31" s="39"/>
     </row>
     <row r="32" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A32" s="34" t="s">
-        <v>72</v>
-      </c>
-      <c r="B32" s="35" t="s">
+      <c r="A32" s="32" t="s">
         <v>73</v>
       </c>
-      <c r="C32" s="35"/>
-      <c r="D32" s="35"/>
-      <c r="E32" s="34" t="s">
+      <c r="B32" s="33" t="s">
         <v>74</v>
       </c>
-      <c r="F32" s="35" t="s">
+      <c r="C32" s="33"/>
+      <c r="D32" s="33"/>
+      <c r="E32" s="32" t="s">
         <v>75</v>
       </c>
-      <c r="G32" s="36"/>
-      <c r="J32" s="41"/>
-      <c r="K32" s="41"/>
-      <c r="L32" s="41"/>
-      <c r="M32" s="41"/>
-      <c r="N32" s="42"/>
-      <c r="O32" s="43"/>
-      <c r="P32" s="43"/>
-      <c r="Q32" s="42"/>
-      <c r="R32" s="41"/>
-      <c r="S32" s="41"/>
-      <c r="T32" s="41"/>
-      <c r="U32" s="41"/>
+      <c r="F32" s="33" t="s">
+        <v>76</v>
+      </c>
+      <c r="G32" s="34"/>
+      <c r="J32" s="39"/>
+      <c r="K32" s="39"/>
+      <c r="L32" s="39"/>
+      <c r="M32" s="39"/>
+      <c r="N32" s="40"/>
+      <c r="O32" s="41"/>
+      <c r="P32" s="41"/>
+      <c r="Q32" s="40"/>
+      <c r="R32" s="39"/>
+      <c r="S32" s="39"/>
+      <c r="T32" s="39"/>
+      <c r="U32" s="39"/>
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="34" t="s">
-        <v>76</v>
-      </c>
-      <c r="B33" s="35" t="s">
+      <c r="A33" s="32" t="s">
         <v>77</v>
       </c>
-      <c r="C33" s="35"/>
-      <c r="D33" s="35"/>
-      <c r="E33" s="34" t="s">
+      <c r="B33" s="33" t="s">
         <v>78</v>
       </c>
-      <c r="F33" s="35" t="s">
+      <c r="C33" s="33"/>
+      <c r="D33" s="33"/>
+      <c r="E33" s="32" t="s">
         <v>79</v>
       </c>
-      <c r="G33" s="36"/>
-      <c r="J33" s="18"/>
-      <c r="K33" s="18"/>
-      <c r="L33" s="18"/>
-      <c r="M33" s="18"/>
-      <c r="N33" s="18"/>
-      <c r="O33" s="18"/>
-      <c r="P33" s="18"/>
-      <c r="Q33" s="18"/>
+      <c r="F33" s="33" t="s">
+        <v>80</v>
+      </c>
+      <c r="G33" s="34"/>
+      <c r="J33" s="17"/>
+      <c r="K33" s="17"/>
+      <c r="L33" s="17"/>
+      <c r="M33" s="17"/>
+      <c r="N33" s="17"/>
+      <c r="O33" s="17"/>
+      <c r="P33" s="17"/>
+      <c r="Q33" s="17"/>
       <c r="R33" s="0"/>
       <c r="S33" s="0"/>
       <c r="T33" s="0"/>
       <c r="U33" s="0"/>
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="44"/>
-      <c r="B34" s="44"/>
-      <c r="C34" s="44"/>
+      <c r="A34" s="42"/>
+      <c r="B34" s="42"/>
+      <c r="C34" s="42"/>
       <c r="D34" s="0"/>
-      <c r="E34" s="18" t="s">
-        <v>80</v>
+      <c r="E34" s="17" t="s">
+        <v>81</v>
       </c>
       <c r="F34" s="0"/>
-      <c r="G34" s="44"/>
-      <c r="J34" s="18"/>
-      <c r="K34" s="18"/>
-      <c r="L34" s="18"/>
-      <c r="M34" s="18"/>
-      <c r="N34" s="18"/>
-      <c r="O34" s="18"/>
-      <c r="P34" s="18"/>
-      <c r="Q34" s="18"/>
-      <c r="R34" s="18" t="s">
-        <v>81</v>
-      </c>
-      <c r="S34" s="18"/>
-      <c r="T34" s="18"/>
-      <c r="U34" s="18"/>
+      <c r="G34" s="42"/>
+      <c r="J34" s="17"/>
+      <c r="K34" s="17"/>
+      <c r="L34" s="17"/>
+      <c r="M34" s="17"/>
+      <c r="N34" s="17"/>
+      <c r="O34" s="17"/>
+      <c r="P34" s="17"/>
+      <c r="Q34" s="17"/>
+      <c r="R34" s="17" t="s">
+        <v>82</v>
+      </c>
+      <c r="S34" s="17"/>
+      <c r="T34" s="17"/>
+      <c r="U34" s="17"/>
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="44"/>
-      <c r="B35" s="44"/>
-      <c r="C35" s="44"/>
-      <c r="D35" s="44"/>
-      <c r="E35" s="44"/>
-      <c r="F35" s="44"/>
-      <c r="G35" s="44"/>
-      <c r="J35" s="18"/>
-      <c r="K35" s="18"/>
-      <c r="L35" s="18"/>
-      <c r="M35" s="18"/>
-      <c r="N35" s="18"/>
-      <c r="O35" s="18"/>
-      <c r="P35" s="18"/>
-      <c r="Q35" s="18"/>
+      <c r="A35" s="42"/>
+      <c r="B35" s="42"/>
+      <c r="C35" s="42"/>
+      <c r="D35" s="42"/>
+      <c r="E35" s="42"/>
+      <c r="F35" s="42"/>
+      <c r="G35" s="42"/>
+      <c r="J35" s="17"/>
+      <c r="K35" s="17"/>
+      <c r="L35" s="17"/>
+      <c r="M35" s="17"/>
+      <c r="N35" s="17"/>
+      <c r="O35" s="17"/>
+      <c r="P35" s="17"/>
+      <c r="Q35" s="17"/>
       <c r="R35" s="0"/>
       <c r="S35" s="0"/>
       <c r="T35" s="0"/>
       <c r="U35" s="0"/>
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="44"/>
-      <c r="B36" s="44"/>
-      <c r="C36" s="44"/>
-      <c r="D36" s="44"/>
-      <c r="E36" s="44"/>
-      <c r="F36" s="44"/>
-      <c r="G36" s="44"/>
-      <c r="J36" s="18"/>
-      <c r="K36" s="18"/>
-      <c r="L36" s="18"/>
-      <c r="M36" s="18"/>
-      <c r="N36" s="18"/>
-      <c r="O36" s="18"/>
-      <c r="P36" s="18"/>
-      <c r="Q36" s="18"/>
+      <c r="A36" s="42"/>
+      <c r="B36" s="42"/>
+      <c r="C36" s="42"/>
+      <c r="D36" s="42"/>
+      <c r="E36" s="42"/>
+      <c r="F36" s="42"/>
+      <c r="G36" s="42"/>
+      <c r="J36" s="17"/>
+      <c r="K36" s="17"/>
+      <c r="L36" s="17"/>
+      <c r="M36" s="17"/>
+      <c r="N36" s="17"/>
+      <c r="O36" s="17"/>
+      <c r="P36" s="17"/>
+      <c r="Q36" s="17"/>
       <c r="R36" s="0"/>
       <c r="S36" s="0"/>
       <c r="T36" s="0"/>
       <c r="U36" s="0"/>
     </row>
     <row r="37" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="18"/>
-      <c r="B37" s="18"/>
-      <c r="C37" s="45" t="s">
-        <v>26</v>
-      </c>
-      <c r="D37" s="45"/>
-      <c r="E37" s="18"/>
-      <c r="F37" s="45" t="s">
+      <c r="A37" s="17"/>
+      <c r="B37" s="17"/>
+      <c r="C37" s="43" t="s">
         <v>27</v>
       </c>
-      <c r="G37" s="45"/>
-      <c r="H37" s="18"/>
-      <c r="I37" s="18"/>
-      <c r="J37" s="18"/>
-      <c r="K37" s="18"/>
-      <c r="L37" s="18"/>
-      <c r="M37" s="45" t="s">
-        <v>82</v>
-      </c>
-      <c r="N37" s="45"/>
-      <c r="O37" s="45"/>
-      <c r="P37" s="45" t="s">
+      <c r="D37" s="43"/>
+      <c r="E37" s="17"/>
+      <c r="F37" s="43" t="s">
+        <v>28</v>
+      </c>
+      <c r="G37" s="43"/>
+      <c r="H37" s="17"/>
+      <c r="I37" s="17"/>
+      <c r="J37" s="17"/>
+      <c r="K37" s="17"/>
+      <c r="L37" s="17"/>
+      <c r="M37" s="43" t="s">
         <v>83</v>
       </c>
-      <c r="Q37" s="45"/>
-      <c r="R37" s="45"/>
-      <c r="S37" s="18"/>
-      <c r="T37" s="18"/>
-      <c r="U37" s="18"/>
+      <c r="N37" s="43"/>
+      <c r="O37" s="43"/>
+      <c r="P37" s="43" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q37" s="43"/>
+      <c r="R37" s="43"/>
+      <c r="S37" s="17"/>
+      <c r="T37" s="17"/>
+      <c r="U37" s="17"/>
     </row>
     <row r="38" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A38" s="46" t="s">
-        <v>84</v>
-      </c>
-      <c r="B38" s="46"/>
-      <c r="C38" s="33"/>
-      <c r="D38" s="33"/>
-      <c r="E38" s="18"/>
-      <c r="F38" s="33"/>
-      <c r="G38" s="33"/>
-      <c r="H38" s="18"/>
-      <c r="I38" s="18"/>
-      <c r="J38" s="46" t="s">
+      <c r="A38" s="44" t="s">
         <v>85</v>
       </c>
-      <c r="K38" s="46"/>
-      <c r="L38" s="46"/>
-      <c r="M38" s="33"/>
-      <c r="N38" s="33"/>
-      <c r="O38" s="33"/>
-      <c r="P38" s="33"/>
-      <c r="Q38" s="33"/>
-      <c r="R38" s="33"/>
-      <c r="S38" s="46" t="s">
-        <v>85</v>
-      </c>
-      <c r="T38" s="46"/>
-      <c r="U38" s="46"/>
+      <c r="B38" s="44"/>
+      <c r="C38" s="31"/>
+      <c r="D38" s="31"/>
+      <c r="E38" s="17"/>
+      <c r="F38" s="31"/>
+      <c r="G38" s="31"/>
+      <c r="H38" s="17"/>
+      <c r="I38" s="17"/>
+      <c r="J38" s="44" t="s">
+        <v>86</v>
+      </c>
+      <c r="K38" s="44"/>
+      <c r="L38" s="44"/>
+      <c r="M38" s="31"/>
+      <c r="N38" s="31"/>
+      <c r="O38" s="31"/>
+      <c r="P38" s="31"/>
+      <c r="Q38" s="31"/>
+      <c r="R38" s="31"/>
+      <c r="S38" s="44" t="s">
+        <v>86</v>
+      </c>
+      <c r="T38" s="44"/>
+      <c r="U38" s="44"/>
     </row>
     <row r="39" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="46"/>
-      <c r="B39" s="46"/>
-      <c r="C39" s="33"/>
-      <c r="D39" s="33"/>
-      <c r="E39" s="18"/>
-      <c r="F39" s="33"/>
-      <c r="G39" s="33"/>
-      <c r="H39" s="18"/>
-      <c r="I39" s="18"/>
-      <c r="J39" s="46"/>
-      <c r="K39" s="46"/>
-      <c r="L39" s="46"/>
-      <c r="M39" s="33"/>
-      <c r="N39" s="33"/>
-      <c r="O39" s="33"/>
-      <c r="P39" s="33"/>
-      <c r="Q39" s="33"/>
-      <c r="R39" s="33"/>
-      <c r="S39" s="46"/>
-      <c r="T39" s="46"/>
-      <c r="U39" s="46"/>
+      <c r="A39" s="44"/>
+      <c r="B39" s="44"/>
+      <c r="C39" s="31"/>
+      <c r="D39" s="31"/>
+      <c r="E39" s="17"/>
+      <c r="F39" s="31"/>
+      <c r="G39" s="31"/>
+      <c r="H39" s="17"/>
+      <c r="I39" s="17"/>
+      <c r="J39" s="44"/>
+      <c r="K39" s="44"/>
+      <c r="L39" s="44"/>
+      <c r="M39" s="31"/>
+      <c r="N39" s="31"/>
+      <c r="O39" s="31"/>
+      <c r="P39" s="31"/>
+      <c r="Q39" s="31"/>
+      <c r="R39" s="31"/>
+      <c r="S39" s="44"/>
+      <c r="T39" s="44"/>
+      <c r="U39" s="44"/>
     </row>
     <row r="40" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="46"/>
-      <c r="B40" s="46"/>
-      <c r="C40" s="33"/>
-      <c r="D40" s="33"/>
-      <c r="E40" s="18"/>
-      <c r="F40" s="33"/>
-      <c r="G40" s="33"/>
-      <c r="H40" s="18"/>
-      <c r="I40" s="18"/>
-      <c r="J40" s="46"/>
-      <c r="K40" s="46"/>
-      <c r="L40" s="46"/>
-      <c r="M40" s="33"/>
-      <c r="N40" s="33"/>
-      <c r="O40" s="33"/>
-      <c r="P40" s="33"/>
-      <c r="Q40" s="33"/>
-      <c r="R40" s="33"/>
-      <c r="S40" s="46"/>
-      <c r="T40" s="46"/>
-      <c r="U40" s="46"/>
+      <c r="A40" s="44"/>
+      <c r="B40" s="44"/>
+      <c r="C40" s="31"/>
+      <c r="D40" s="31"/>
+      <c r="E40" s="17"/>
+      <c r="F40" s="31"/>
+      <c r="G40" s="31"/>
+      <c r="H40" s="17"/>
+      <c r="I40" s="17"/>
+      <c r="J40" s="44"/>
+      <c r="K40" s="44"/>
+      <c r="L40" s="44"/>
+      <c r="M40" s="31"/>
+      <c r="N40" s="31"/>
+      <c r="O40" s="31"/>
+      <c r="P40" s="31"/>
+      <c r="Q40" s="31"/>
+      <c r="R40" s="31"/>
+      <c r="S40" s="44"/>
+      <c r="T40" s="44"/>
+      <c r="U40" s="44"/>
     </row>
     <row r="41" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="46"/>
-      <c r="B41" s="46"/>
-      <c r="C41" s="33"/>
-      <c r="D41" s="33"/>
-      <c r="E41" s="18"/>
-      <c r="F41" s="33"/>
-      <c r="G41" s="33"/>
-      <c r="H41" s="18"/>
-      <c r="I41" s="18"/>
-      <c r="J41" s="46"/>
-      <c r="K41" s="46"/>
-      <c r="L41" s="46"/>
-      <c r="M41" s="33"/>
-      <c r="N41" s="33"/>
-      <c r="O41" s="33"/>
-      <c r="P41" s="33"/>
-      <c r="Q41" s="33"/>
-      <c r="R41" s="33"/>
-      <c r="S41" s="46"/>
-      <c r="T41" s="46"/>
-      <c r="U41" s="46"/>
+      <c r="A41" s="44"/>
+      <c r="B41" s="44"/>
+      <c r="C41" s="31"/>
+      <c r="D41" s="31"/>
+      <c r="E41" s="17"/>
+      <c r="F41" s="31"/>
+      <c r="G41" s="31"/>
+      <c r="H41" s="17"/>
+      <c r="I41" s="17"/>
+      <c r="J41" s="44"/>
+      <c r="K41" s="44"/>
+      <c r="L41" s="44"/>
+      <c r="M41" s="31"/>
+      <c r="N41" s="31"/>
+      <c r="O41" s="31"/>
+      <c r="P41" s="31"/>
+      <c r="Q41" s="31"/>
+      <c r="R41" s="31"/>
+      <c r="S41" s="44"/>
+      <c r="T41" s="44"/>
+      <c r="U41" s="44"/>
     </row>
   </sheetData>
-  <mergeCells count="70">
+  <mergeCells count="71">
     <mergeCell ref="J1:U1"/>
     <mergeCell ref="J2:L2"/>
     <mergeCell ref="M2:N2"/>
@@ -1907,6 +1909,7 @@
     <mergeCell ref="O8:P8"/>
     <mergeCell ref="O9:P9"/>
     <mergeCell ref="A10:B10"/>
+    <mergeCell ref="F10:G19"/>
     <mergeCell ref="O10:P10"/>
     <mergeCell ref="O11:P11"/>
     <mergeCell ref="D12:E12"/>

--- a/assets/template.xlsx
+++ b/assets/template.xlsx
@@ -646,7 +646,7 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
@@ -819,7 +819,7 @@
   <dimension ref="A1:U41"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D10" activeCellId="0" sqref="D10"/>
+      <selection pane="topLeft" activeCell="A24" activeCellId="0" sqref="A24:A33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.43359375" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
